--- a/thesis/ch03-SoA_Elicitation/tmp/methods.xlsx
+++ b/thesis/ch03-SoA_Elicitation/tmp/methods.xlsx
@@ -100,12 +100,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,10 +126,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -429,10 +438,13 @@
   <dimension ref="A4:O28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="14.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="4" spans="2:15" x14ac:dyDescent="0.25">
       <c r="C4" t="s">
@@ -572,7 +584,7 @@
       </c>
     </row>
     <row r="9" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="1">
@@ -617,7 +629,7 @@
       </c>
     </row>
     <row r="10" spans="2:15" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="1">
@@ -662,7 +674,7 @@
       </c>
     </row>
     <row r="11" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>5</v>
       </c>
       <c r="C11">
@@ -713,7 +725,7 @@
       </c>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C12">
@@ -764,7 +776,7 @@
       </c>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C13">
@@ -815,7 +827,7 @@
       </c>
     </row>
     <row r="14" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C14">
@@ -856,7 +868,7 @@
       </c>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>19</v>
       </c>
       <c r="C15">
@@ -897,7 +909,7 @@
       </c>
     </row>
     <row r="16" spans="2:15" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C16">
@@ -938,7 +950,7 @@
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
       <c r="C17">
@@ -979,7 +991,7 @@
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
       <c r="C18">
